--- a/data/trans_dic/P28A_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P28A_1_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,7 +538,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha realizado menos ejercicio respecto al último mes</t>
+          <t>Población que ha realizado menos ejercicio respecto al último mes (tasa de respuesta: 99,96%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -680,77 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>54,59%</t>
+          <t>61,27%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>22,84%</t>
+          <t>16,5%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>28,29%</t>
+          <t>25,59%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>17,52%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>23,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>59,99%</t>
+          <t>60,82%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>29,66%</t>
+          <t>30,67%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>28,94%</t>
+          <t>24,06%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>21,71%</t>
+          <t>16,26%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>26,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>57,66%</t>
+          <t>61,03%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>26,49%</t>
+          <t>24,35%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>28,63%</t>
+          <t>24,75%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>20,31%</t>
+          <t>16,82%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>25,19%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -763,77 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>48,51; 62,28</t>
+          <t>49,94; 71,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,56; 32,47</t>
+          <t>9,97; 24,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,31; 37,21</t>
+          <t>19,26; 36,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,09; 28,82</t>
+          <t>12,39; 29,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,05; 28,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>54,8; 64,98</t>
+          <t>51,74; 69,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>23,27; 36,09</t>
+          <t>23,01; 38,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>23,89; 33,31</t>
+          <t>19,53; 29,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,02; 33,69</t>
+          <t>12,76; 20,29</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>21,45; 33,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>53,11; 61,71</t>
+          <t>54,1; 68,17</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>21,64; 32,36</t>
+          <t>18,74; 30,34</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>25,27; 34,44</t>
+          <t>20,4; 29,91</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>15,96; 27,51</t>
+          <t>13,48; 22,16</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>21,25; 29,63</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -850,77 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>50,1%</t>
+          <t>53,37%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>28,59%</t>
+          <t>28,07%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>27,96%</t>
+          <t>25,92%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>22,5%</t>
+          <t>21,54%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>27,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>51,42%</t>
+          <t>53,71%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>29,42%</t>
+          <t>28,19%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>32,73%</t>
+          <t>28,95%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>21,21%</t>
+          <t>19,5%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>31,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>50,75%</t>
+          <t>53,55%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>29,01%</t>
+          <t>28,13%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>30,22%</t>
+          <t>27,45%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>21,89%</t>
+          <t>20,56%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>29,45%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -933,77 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>46,15; 54,78</t>
+          <t>46,97; 59,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>24,72; 33,94</t>
+          <t>22,77; 33,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23,66; 32,45</t>
+          <t>21,67; 31,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18,19; 27,88</t>
+          <t>17,51; 26,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,44; 32,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>47,49; 54,66</t>
+          <t>47,3; 59,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,2; 33,29</t>
+          <t>23,81; 33,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>28,91; 36,56</t>
+          <t>24,89; 33,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,94; 24,76</t>
+          <t>16,51; 22,62</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>27,34; 36,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>47,99; 53,61</t>
+          <t>49,22; 58,14</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>26,34; 32,19</t>
+          <t>24,81; 31,59</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>27,49; 32,92</t>
+          <t>24,49; 30,57</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>19,01; 25,04</t>
+          <t>17,83; 23,81</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>26,29; 32,8</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>60,27%</t>
+          <t>58,11%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>30,74%</t>
+          <t>31,01%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>31,58%</t>
+          <t>28,96%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>18,87%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>26,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>56,07%</t>
+          <t>59,36%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>30,69%</t>
+          <t>29,08%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>36,4%</t>
+          <t>33,62%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>21,65%</t>
+          <t>20,68%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>27,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>58,22%</t>
+          <t>58,78%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>30,72%</t>
+          <t>30,01%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>34,02%</t>
+          <t>31,42%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>20,79%</t>
+          <t>19,8%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>27,29%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,84 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>55,47; 65,08</t>
+          <t>50,36; 64,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>25,7; 36,94</t>
+          <t>25,11; 38,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>26,57; 37,13</t>
+          <t>24,16; 33,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,18; 24,33</t>
+          <t>15,21; 23,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,79; 34,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>51,24; 60,86</t>
+          <t>52,37; 65,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26,7; 35,77</t>
+          <t>24,61; 35,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>32,3; 41,21</t>
+          <t>29,32; 38,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,33; 25,38</t>
+          <t>17,52; 24,05</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>22,75; 33,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>54,88; 61,54</t>
+          <t>54,22; 63,76</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>27,22; 34,62</t>
+          <t>26,01; 34,13</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>30,71; 37,63</t>
+          <t>28,18; 34,78</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>18,4; 23,61</t>
+          <t>17,28; 22,18</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>22,88; 31,71</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1190,77 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>53,98%</t>
+          <t>51,13%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>28,22%</t>
+          <t>28,96%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>29,18%</t>
+          <t>26,1%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>50,35%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>28,37%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>26,27%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>50,74%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>28,67%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
           <t>26,18%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>54,66%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>29,87%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>33,0%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>21,48%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>29,14%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>54,33%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>29,05%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>31,08%</t>
-        </is>
-      </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>21,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>27,66%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1273,83 +1274,261 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>50,83; 56,88</t>
+          <t>47,15; 54,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,97; 31,61</t>
+          <t>24,2; 34,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,18; 32,42</t>
+          <t>20,94; 33,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,13; 24,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,31; 29,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>52,19; 57,13</t>
+          <t>46,99; 53,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,11; 32,47</t>
+          <t>24,26; 32,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,33; 35,5</t>
+          <t>21,95; 31,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,35; 25,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,36; 32,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>52,37; 56,18</t>
+          <t>48,11; 53,23</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,97; 31,25</t>
+          <t>25,71; 32,19</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>29,01; 33,02</t>
+          <t>22,6; 30,53</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>19,22; 23,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>25,55; 29,94</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>53,14%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>27,92%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>26,67%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>19,85%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>53,11%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>28,74%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>28,74%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>19,07%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>53,12%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>28,34%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>27,72%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>19,45%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>50,16; 56,04</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>25,21; 31,2</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>23,94; 29,43</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>17,18; 23,07</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>50,5; 55,71</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>26,25; 31,16</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>26,51; 31,21</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>17,29; 21,3</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>51,18; 55,01</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>26,57; 30,37</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>26,15; 29,58</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>17,69; 21,26</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1360,4 +1539,1461 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha realizado menos ejercicio respecto al último mes (tasa de respuesta: 99,96%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>138766</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>55982</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>134777</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>127611</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>159158</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>129330</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>152922</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>146116</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>297925</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>185312</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>287699</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>273728</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>113112; 161709</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>33827; 82981</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>101455; 190412</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>90219; 215962</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>135399; 182357</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>97044; 161985</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>124130; 187369</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>114672; 182380</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>264104; 332815</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>142582; 230859</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>237142; 347637</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>219304; 360468</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>312.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>201.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>347366</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>261737</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>311608</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>349030</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>384064</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>281888</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>357017</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>293352</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>731430</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>543625</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>668625</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>642382</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>305729; 388960</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>212350; 312385</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>260486; 380841</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>283663; 430897</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>338266; 424708</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>238051; 332123</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>306940; 408657</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>248291; 340336</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>672275; 794138</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>479416; 610545</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>596423; 744563</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>557146; 743978</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>258.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>259.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>264787</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>221911</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>244939</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>205924</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>315590</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>223679</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>316627</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>240533</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>580377</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>445590</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>561567</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>446457</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>229478; 295577</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>179683; 276073</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>204283; 286200</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>166000; 253158</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>278450; 345821</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>189321; 269942</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>276100; 357818</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>203851; 279770</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>535385; 629547</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>386129; 506705</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>503763; 621594</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>389618; 499960</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>400.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>464.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>864.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>268.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1081000</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>422035</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>224518</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1052231</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>396837</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>199470</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2133230</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>818872</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>423988</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>996929; 1161557</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>352699; 503046</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>180152; 290514</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>981879; 1122694</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>339313; 448131</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>166696; 239736</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2022765; 2237803</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>734189; 919377</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>366077; 494389</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>705.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>309.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>348.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>852.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>390.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>474.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>320.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1557.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>699.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>822.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>562.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1831920</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>961666</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>915843</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>682566</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1911043</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1031734</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1026036</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>680001</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>3742962</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1993400</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1941879</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1362567</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1729308; 1931994</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>868387; 1074655</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>822126; 1010928</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>590789; 793382</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1816936; 2004403</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>942321; 1118632</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>946456; 1114170</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>616558; 759645</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3605909; 3875508</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1868880; 2136006</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>1831941; 2071898</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>1239447; 1489605</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>